--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
@@ -657,40 +657,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
         <v>680</v>
       </c>
       <c r="J2" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>1.37</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -786,40 +786,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>680</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>1.41</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -834,58 +834,58 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="W3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -915,106 +915,106 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="V4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="W4" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5">
@@ -1044,106 +1044,106 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="W5" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="X5" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="n">
         <v>21</v>
       </c>
-      <c r="AB5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>25</v>
-      </c>
       <c r="AE5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>21</v>
-      </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1173,106 +1173,106 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.99</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="W6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH6" t="n">
         <v>60</v>
       </c>
-      <c r="AF6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>220</v>
-      </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>580</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1308,43 +1308,43 @@
         <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.55</v>
       </c>
       <c r="Q7" t="n">
         <v>1.31</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
         <v>1.68</v>
@@ -1353,7 +1353,7 @@
         <v>1000</v>
       </c>
       <c r="W7" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="X7" t="n">
         <v>85</v>
@@ -1362,25 +1362,25 @@
         <v>900</v>
       </c>
       <c r="Z7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
         <v>42</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AC7" t="n">
         <v>160</v>
       </c>
       <c r="AD7" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
         <v>130</v>
@@ -1401,7 +1401,7 @@
         <v>8.4</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1434,10 +1434,10 @@
         <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1461,10 +1461,10 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
         <v>980</v>
@@ -1527,7 +1527,7 @@
         <v>150</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>55</v>
@@ -1560,67 +1560,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="R9" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="S9" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X9" t="n">
         <v>130</v>
       </c>
       <c r="Y9" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AA9" t="n">
         <v>8</v>
@@ -1632,19 +1632,19 @@
         <v>370</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>150</v>
       </c>
       <c r="AG9" t="n">
-        <v>470</v>
+        <v>870</v>
       </c>
       <c r="AH9" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AI9" t="n">
         <v>70</v>
@@ -1656,10 +1656,10 @@
         <v>580</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -1689,16 +1689,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.47</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.48</v>
       </c>
       <c r="J10" t="n">
         <v>5.2</v>
@@ -1713,7 +1713,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1725,19 +1725,19 @@
         <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="V10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W10" t="n">
         <v>12</v>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -1764,7 +1764,7 @@
         <v>70</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
@@ -1776,7 +1776,7 @@
         <v>210</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
         <v>75</v>
@@ -1788,7 +1788,7 @@
         <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -1818,19 +1818,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
@@ -1848,10 +1848,10 @@
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
         <v>1.69</v>
@@ -1860,37 +1860,37 @@
         <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="V11" t="n">
         <v>18</v>
       </c>
       <c r="W11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE11" t="n">
         <v>15.5</v>
@@ -1905,7 +1905,7 @@
         <v>70</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>46</v>
@@ -1917,7 +1917,7 @@
         <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1956,10 +1956,10 @@
         <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -1971,34 +1971,34 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
         <v>1.24</v>
       </c>
       <c r="V12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2007,10 +2007,10 @@
         <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G13" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2100,19 +2100,19 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S13" t="n">
         <v>2.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.52</v>
       </c>
       <c r="U13" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
         <v>980</v>
@@ -2175,7 +2175,7 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2205,52 +2205,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.94</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.92</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
         <v>22</v>
@@ -2265,7 +2265,7 @@
         <v>900</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AA14" t="n">
         <v>13.5</v>
@@ -2277,10 +2277,10 @@
         <v>330</v>
       </c>
       <c r="AD14" t="n">
-        <v>460</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>130</v>
@@ -2304,7 +2304,7 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">
@@ -2337,13 +2337,13 @@
         <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2358,22 +2358,22 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
         <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
         <v>1.3</v>
@@ -2412,13 +2412,13 @@
         <v>10.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="n">
         <v>46</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="AI15" t="n">
         <v>18</v>
@@ -2430,7 +2430,7 @@
         <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
         <v>34</v>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G16" t="n">
         <v>1.59</v>
@@ -2598,7 +2598,7 @@
         <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
         <v>2.68</v>
@@ -2616,7 +2616,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -2625,16 +2625,16 @@
         <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S17" t="n">
         <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
         <v>1.47</v>
@@ -2658,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>160</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
         <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
         <v>2.8</v>
@@ -2736,7 +2736,7 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.54</v>
@@ -2748,13 +2748,13 @@
         <v>2.92</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
         <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
         <v>1.98</v>
@@ -2820,7 +2820,7 @@
         <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2850,22 +2850,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2874,28 +2874,28 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>2.32</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.65</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.66</v>
       </c>
       <c r="S19" t="n">
         <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
         <v>980</v>
@@ -2904,7 +2904,7 @@
         <v>980</v>
       </c>
       <c r="X19" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
         <v>900</v>
@@ -2913,7 +2913,7 @@
         <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -2937,7 +2937,7 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>170</v>
@@ -2985,10 +2985,10 @@
         <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3012,13 +3012,13 @@
         <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
         <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
         <v>1.76</v>
@@ -3039,7 +3039,7 @@
         <v>30</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA20" t="n">
         <v>7.8</v>
@@ -3051,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>14.5</v>
@@ -3069,7 +3069,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="n">
         <v>90</v>
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
         <v>1.97</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -3150,16 +3150,16 @@
         <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
         <v>11.5</v>
       </c>
       <c r="W21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -3168,16 +3168,16 @@
         <v>110</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>7.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
@@ -3186,19 +3186,19 @@
         <v>10.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>80</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
         <v>130</v>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.74</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.75</v>
       </c>
       <c r="H22" t="n">
         <v>6.6</v>
@@ -3249,10 +3249,10 @@
         <v>6.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
         <v>1.63</v>
@@ -3273,7 +3273,7 @@
         <v>2.68</v>
       </c>
       <c r="R22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
         <v>1.63</v>
@@ -3282,25 +3282,25 @@
         <v>1.17</v>
       </c>
       <c r="U22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="W22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
         <v>48</v>
       </c>
       <c r="Y22" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AB22" t="n">
         <v>27</v>
@@ -3309,7 +3309,7 @@
         <v>140</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
@@ -3318,10 +3318,10 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
         <v>24</v>
@@ -3333,10 +3333,10 @@
         <v>280</v>
       </c>
       <c r="AL22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -3375,7 +3375,7 @@
         <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3408,10 +3408,10 @@
         <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V23" t="n">
         <v>11</v>
@@ -3432,13 +3432,13 @@
         <v>7.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
         <v>44</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
         <v>11.5</v>
@@ -3519,7 +3519,7 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
@@ -3627,19 +3627,19 @@
         <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
         <v>3.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3657,22 +3657,22 @@
         <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R25" t="n">
         <v>1.79</v>
       </c>
       <c r="S25" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
         <v>15</v>
@@ -3708,7 +3708,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>22</v>
@@ -3753,16 +3753,16 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.32</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
@@ -3777,7 +3777,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
@@ -3786,19 +3786,19 @@
         <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
         <v>1.74</v>
       </c>
       <c r="S26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T26" t="n">
         <v>1.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
         <v>14.5</v>
@@ -3819,13 +3819,13 @@
         <v>7.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="n">
         <v>38</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
@@ -3837,7 +3837,7 @@
         <v>46</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -3882,22 +3882,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K27" t="n">
         <v>7.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.23</v>
@@ -3909,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P27" t="n">
         <v>3.6</v>
@@ -3921,19 +3921,19 @@
         <v>1.81</v>
       </c>
       <c r="S27" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="U27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="V27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
@@ -3954,34 +3954,34 @@
         <v>12.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AE27" t="n">
         <v>48</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="AI27" t="n">
         <v>160</v>
       </c>
       <c r="AJ27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
         <v>110</v>
       </c>
       <c r="AL27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="28">
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H28" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4053,19 +4053,19 @@
         <v>2.36</v>
       </c>
       <c r="T28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="W28" t="n">
         <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
         <v>36</v>
@@ -4080,25 +4080,25 @@
         <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
         <v>36</v>
       </c>
       <c r="AH28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ28" t="n">
         <v>38</v>
@@ -4107,7 +4107,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -4143,7 +4143,7 @@
         <v>2.68</v>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H29" t="n">
         <v>2.72</v>
@@ -4155,7 +4155,7 @@
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -4164,7 +4164,7 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4188,13 +4188,13 @@
         <v>1.58</v>
       </c>
       <c r="V29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="W29" t="n">
         <v>15.5</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
         <v>40</v>
@@ -4206,10 +4206,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD29" t="n">
         <v>19.5</v>
@@ -4227,7 +4227,7 @@
         <v>38</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>30</v>
@@ -4269,16 +4269,16 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.86</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.88</v>
-      </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I30" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4305,19 +4305,19 @@
         <v>1.81</v>
       </c>
       <c r="R30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T30" t="n">
         <v>1.59</v>
       </c>
       <c r="U30" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="W30" t="n">
         <v>13.5</v>
@@ -4338,16 +4338,16 @@
         <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD30" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>12.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>34</v>
@@ -4368,7 +4368,7 @@
         <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -4452,7 +4452,7 @@
         <v>13.5</v>
       </c>
       <c r="X31" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y31" t="n">
         <v>8.800000000000001</v>
@@ -4464,13 +4464,13 @@
         <v>24</v>
       </c>
       <c r="AB31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AE31" t="n">
         <v>75</v>
@@ -4485,7 +4485,7 @@
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AJ31" t="n">
         <v>220</v>
@@ -4494,10 +4494,10 @@
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="32">
@@ -4527,40 +4527,40 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.81</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.82</v>
       </c>
       <c r="H32" t="n">
         <v>5.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
         <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R32" t="n">
         <v>1.87</v>
@@ -4569,10 +4569,10 @@
         <v>2.04</v>
       </c>
       <c r="T32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V32" t="n">
         <v>14.5</v>
@@ -4581,7 +4581,7 @@
         <v>18.5</v>
       </c>
       <c r="X32" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="n">
         <v>130</v>
@@ -4593,13 +4593,13 @@
         <v>8.4</v>
       </c>
       <c r="AB32" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC32" t="n">
         <v>75</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
         <v>10.5</v>
@@ -4608,22 +4608,22 @@
         <v>19.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AH32" t="n">
         <v>18</v>
       </c>
       <c r="AI32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ32" t="n">
         <v>36</v>
       </c>
       <c r="AK32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM32" t="n">
         <v>75</v>
@@ -4662,40 +4662,40 @@
         <v>4.7</v>
       </c>
       <c r="H33" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I33" t="n">
         <v>1.87</v>
       </c>
-      <c r="I33" t="n">
-        <v>1.88</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.36</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.34</v>
       </c>
       <c r="T33" t="n">
         <v>2.12</v>
@@ -4704,7 +4704,7 @@
         <v>1.27</v>
       </c>
       <c r="V33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="W33" t="n">
         <v>11.5</v>
@@ -4713,19 +4713,19 @@
         <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD33" t="n">
         <v>38</v>
@@ -4740,7 +4740,7 @@
         <v>28</v>
       </c>
       <c r="AH33" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AI33" t="n">
         <v>55</v>
@@ -4752,10 +4752,10 @@
         <v>75</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -4785,76 +4785,76 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G34" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="K34" t="n">
         <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R34" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="S34" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="W34" t="n">
+        <v>980</v>
+      </c>
+      <c r="X34" t="n">
+        <v>210</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
         <v>75</v>
       </c>
-      <c r="X34" t="n">
-        <v>170</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>700</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>17</v>
-      </c>
       <c r="AB34" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
         <v>9.199999999999999</v>
@@ -4863,28 +4863,28 @@
         <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AH34" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK34" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AL34" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AM34" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -4914,25 +4914,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -4941,10 +4941,10 @@
         <v>2.76</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q35" t="n">
         <v>2.28</v>
@@ -4968,7 +4968,7 @@
         <v>21</v>
       </c>
       <c r="X35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="n">
         <v>230</v>
@@ -4980,7 +4980,7 @@
         <v>8.4</v>
       </c>
       <c r="AB35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC35" t="n">
         <v>140</v>
@@ -4992,7 +4992,7 @@
         <v>11</v>
       </c>
       <c r="AF35" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG35" t="n">
         <v>180</v>
@@ -5004,13 +5004,13 @@
         <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="n">
         <v>310</v>
       </c>
       <c r="AL35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AM35" t="n">
         <v>260</v>
@@ -5043,22 +5043,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J36" t="n">
         <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -5085,10 +5085,10 @@
         <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U36" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V36" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,110 +521,120 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Under35_FT_Back</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT_Back</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Odd_BTTS_Yes_Back</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No_Back</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Double_Chance_Home_or_Draw_Back</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Double_Chance_Draw_or_Away_Back</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x0_Lay</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x1_Lay</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x2_Lay</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x3_Lay</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x0_Lay</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x1_Lay</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x2_Lay</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x3_Lay</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x0_Lay</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x1_Lay</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x2_Lay</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x3_Lay</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x0_Lay</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x1_Lay</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x2_Lay</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x3_Lay</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_Goleada_H_Lay</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_Goleada_A_Lay</t>
         </is>
@@ -657,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
         <v>860</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
         <v>680</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -681,22 +691,22 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -705,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -756,6 +766,12 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -789,10 +805,10 @@
         <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="I3" t="n">
         <v>680</v>
@@ -813,19 +829,19 @@
         <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -834,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -885,6 +901,12 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -915,106 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="V4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="n">
         <v>32</v>
       </c>
-      <c r="W4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>27</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>17.5</v>
+        <v>110</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="5">
@@ -1044,106 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>1.72</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V5" t="n">
-        <v>50</v>
-      </c>
-      <c r="W5" t="n">
-        <v>38</v>
-      </c>
-      <c r="X5" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
@@ -1173,106 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V6" t="n">
-        <v>36</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>1.79</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>36</v>
       </c>
-      <c r="AE6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>9.199999999999999</v>
+        <v>70</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1302,106 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>1.78</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>160</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="Y7" t="n">
-        <v>900</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>42</v>
       </c>
-      <c r="AB7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>110</v>
-      </c>
       <c r="AK7" t="n">
-        <v>580</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN7" t="n">
         <v>8.4</v>
       </c>
-      <c r="AM7" t="n">
-        <v>110</v>
+      <c r="AO7" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="8">
@@ -1431,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1455,22 +1501,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1479,58 +1525,64 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>12.5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="n">
         <v>12.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
         <v>22</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AG8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>55</v>
       </c>
-      <c r="Z8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AK8" t="n">
         <v>42</v>
       </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AL8" t="n">
         <v>65</v>
       </c>
-      <c r="AH8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>150</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>44</v>
       </c>
-      <c r="AM8" t="n">
-        <v>55</v>
+      <c r="AO8" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1560,106 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
         <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.34</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>1.64</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.2</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="W9" t="n">
-        <v>15.5</v>
+        <v>1.89</v>
       </c>
       <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
         <v>130</v>
       </c>
-      <c r="Y9" t="n">
-        <v>960</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
         <v>370</v>
       </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
       <c r="AF9" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
         <v>320</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>580</v>
       </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>270</v>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1689,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G10" t="n">
         <v>7.8</v>
       </c>
-      <c r="G10" t="n">
-        <v>8</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="n">
         <v>5.2</v>
@@ -1722,73 +1780,79 @@
         <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V10" t="n">
         <v>3.1</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>1.14</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>27</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>12</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>10</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
         <v>36</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>12</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>10</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>13</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>70</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>27</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>20</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>28</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>210</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>75</v>
       </c>
       <c r="AK10" t="n">
         <v>85</v>
       </c>
       <c r="AL10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="n">
         <v>90</v>
       </c>
-      <c r="AM10" t="n">
-        <v>5.1</v>
+      <c r="AO10" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -1830,13 +1894,13 @@
         <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1851,72 +1915,78 @@
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.69</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>2.4</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>1.98</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>1.31</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>18</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>11</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>22</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>8.6</v>
       </c>
-      <c r="AB11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>18</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>32</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>16</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>29</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>70</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>42</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>46</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>75</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>36</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1956,10 +2026,10 @@
         <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -1974,78 +2044,84 @@
         <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
         <v>2.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.38</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.24</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>30</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>16</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>21</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>30</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
         <v>12</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AE12" t="n">
         <v>85</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
         <v>50</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>23</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>980</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>150</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>900</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AK12" t="n">
         <v>280</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>280</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>580</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AN12" t="n">
         <v>300</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AO12" t="n">
         <v>7.4</v>
       </c>
     </row>
@@ -2076,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.95</v>
@@ -2097,85 +2173,91 @@
         <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.4</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>1.52</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X13" t="n">
         <v>980</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>980</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>110</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
         <v>900</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14</v>
       </c>
       <c r="AB13" t="n">
         <v>980</v>
       </c>
       <c r="AC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
         <v>170</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
         <v>110</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
         <v>980</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
         <v>980</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>180</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>200</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
         <v>150</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
         <v>190</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>580</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AN13" t="n">
         <v>22</v>
       </c>
-      <c r="AM13" t="n">
-        <v>24</v>
+      <c r="AO13" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2223,7 +2305,7 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2232,78 +2314,84 @@
         <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
         <v>1.96</v>
       </c>
       <c r="R14" t="n">
-        <v>1.96</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.94</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>1.22</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>2.02</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>22</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>980</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>230</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>900</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AB14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>980</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
         <v>330</v>
       </c>
-      <c r="AD14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="n">
         <v>19</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AH14" t="n">
         <v>130</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>510</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>180</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AK14" t="n">
         <v>120</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
         <v>280</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>580</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AN14" t="n">
         <v>55</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AO14" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2334,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2355,7 +2443,7 @@
         <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
         <v>4.9</v>
@@ -2370,70 +2458,76 @@
         <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>20</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
         <v>21</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>34</v>
       </c>
-      <c r="Y15" t="n">
-        <v>900</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
         <v>18</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>27</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>70</v>
       </c>
-      <c r="AL15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
+      <c r="AN15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2466,10 +2560,10 @@
         <v>1.42</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
         <v>32</v>
@@ -2499,69 +2593,75 @@
         <v>1.01</v>
       </c>
       <c r="R16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.02</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>1.02</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>1.12</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>2.66</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>980</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>980</v>
       </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
         <v>980</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AH16" t="n">
         <v>980</v>
       </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>180</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
         <v>70</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
         <v>85</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AO16" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2592,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G17" t="n">
         <v>3.15</v>
@@ -2607,90 +2707,96 @@
         <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
         <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.1</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>1.59</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>1.47</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
         <v>980</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>980</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>95</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AA17" t="n">
         <v>140</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
         <v>980</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AC17" t="n">
         <v>14</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AD17" t="n">
         <v>13</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AE17" t="n">
         <v>160</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AF17" t="n">
         <v>110</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
         <v>980</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AH17" t="n">
         <v>980</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>210</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>900</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AK17" t="n">
         <v>180</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
         <v>55</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>580</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AN17" t="n">
         <v>32</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AO17" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2721,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
         <v>2.8</v>
@@ -2736,7 +2842,7 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.54</v>
@@ -2751,75 +2857,81 @@
         <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
         <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.96</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>1.56</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X18" t="n">
         <v>10.5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF18" t="n">
         <v>95</v>
       </c>
-      <c r="X18" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AG18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>900</v>
       </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AK18" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="n">
         <v>300</v>
       </c>
-      <c r="AH18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>580</v>
       </c>
-      <c r="AL18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO18" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2850,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2874,81 +2986,87 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X19" t="n">
         <v>980</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>980</v>
       </c>
-      <c r="X19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
         <v>900</v>
       </c>
-      <c r="Z19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>55</v>
-      </c>
       <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
         <v>980</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AE19" t="n">
         <v>250</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AF19" t="n">
         <v>75</v>
       </c>
-      <c r="AE19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>980</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>280</v>
       </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ19" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="n">
         <v>170</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>580</v>
       </c>
-      <c r="AL19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO19" t="n">
         <v>240</v>
       </c>
     </row>
@@ -2979,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3006,78 +3124,84 @@
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
         <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X20" t="n">
         <v>14.5</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>10.5</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
         <v>14</v>
       </c>
-      <c r="Y20" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>38</v>
-      </c>
       <c r="AH20" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="n">
         <v>46</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>90</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AN20" t="n">
         <v>36</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AO20" t="n">
         <v>17.5</v>
       </c>
     </row>
@@ -3108,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.95</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.97</v>
       </c>
       <c r="H21" t="n">
         <v>4.8</v>
@@ -3144,69 +3268,75 @@
         <v>2.22</v>
       </c>
       <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.99</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>1.95</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>1.25</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>2.04</v>
       </c>
-      <c r="V21" t="n">
+      <c r="X21" t="n">
         <v>11.5</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>15</v>
       </c>
-      <c r="X21" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
         <v>110</v>
       </c>
-      <c r="Z21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AE21" t="n">
         <v>70</v>
       </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
       <c r="AG21" t="n">
-        <v>80</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>21</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
         <v>42</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>130</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AN21" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AO21" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3270,72 +3400,78 @@
         <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.5</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>1.63</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>1.17</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>2.36</v>
       </c>
-      <c r="V22" t="n">
+      <c r="X22" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
         <v>15</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>48</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AA22" t="n">
         <v>230</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AB22" t="n">
         <v>5.7</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
         <v>8.4</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AD22" t="n">
         <v>27</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AE22" t="n">
         <v>140</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AF22" t="n">
         <v>8</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
         <v>11</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AH22" t="n">
         <v>34</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>160</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AK22" t="n">
         <v>24</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
         <v>65</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>280</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AN22" t="n">
         <v>17</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AO22" t="n">
         <v>260</v>
       </c>
     </row>
@@ -3399,72 +3535,78 @@
         <v>1.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.94</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>1.41</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>1.71</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>11</v>
       </c>
-      <c r="W23" t="n">
-        <v>11</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z23" t="n">
         <v>22</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AA23" t="n">
         <v>65</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AB23" t="n">
         <v>8.6</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AC23" t="n">
         <v>7.2</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AD23" t="n">
         <v>14</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AE23" t="n">
         <v>44</v>
       </c>
-      <c r="AD23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
         <v>65</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>32</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AK23" t="n">
         <v>28</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
         <v>46</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>130</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AN23" t="n">
         <v>25</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AO23" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3501,10 +3643,10 @@
         <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3531,69 +3673,75 @@
         <v>1.81</v>
       </c>
       <c r="R24" t="n">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.2</v>
       </c>
-      <c r="T24" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.25</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE24" t="n">
         <v>17</v>
       </c>
-      <c r="W24" t="n">
-        <v>10</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AF24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH24" t="n">
         <v>18</v>
       </c>
-      <c r="Z24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>32</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>110</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AK24" t="n">
         <v>60</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AL24" t="n">
         <v>65</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>90</v>
       </c>
-      <c r="AL24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AN24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO24" t="n">
         <v>9.6</v>
       </c>
     </row>
@@ -3627,7 +3775,7 @@
         <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H25" t="n">
         <v>3.9</v>
@@ -3636,10 +3784,10 @@
         <v>3.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3660,69 +3808,75 @@
         <v>1.97</v>
       </c>
       <c r="R25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.79</v>
       </c>
-      <c r="S25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.33</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V25" t="n">
-        <v>14</v>
-      </c>
       <c r="W25" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>15</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>27</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
         <v>75</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AB25" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AC25" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AD25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AE25" t="n">
         <v>44</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AF25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AG25" t="n">
         <v>11</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AH25" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>55</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AJ25" t="n">
         <v>25</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AK25" t="n">
         <v>22</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AL25" t="n">
         <v>36</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>90</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AN25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AO25" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3753,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H26" t="n">
         <v>3.45</v>
@@ -3771,7 +3925,7 @@
         <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3786,72 +3940,78 @@
         <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.74</v>
       </c>
-      <c r="S26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>14.5</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>14</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>23</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AA26" t="n">
         <v>60</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AB26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AC26" t="n">
         <v>7.8</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>38</v>
       </c>
       <c r="AD26" t="n">
         <v>14</v>
       </c>
       <c r="AE26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG26" t="n">
         <v>11</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AH26" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>46</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>30</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AK26" t="n">
         <v>23</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AL26" t="n">
         <v>36</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>85</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AN26" t="n">
         <v>17.5</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AO26" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3882,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
         <v>1.27</v>
@@ -3900,7 +4060,7 @@
         <v>7.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -3918,70 +4078,76 @@
         <v>1.37</v>
       </c>
       <c r="R27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.81</v>
       </c>
-      <c r="S27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V27" t="n">
         <v>4.6</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X27" t="n">
         <v>42</v>
       </c>
-      <c r="W27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AA27" t="n">
         <v>11</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AB27" t="n">
         <v>65</v>
       </c>
-      <c r="AA27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
         <v>12</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AE27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AF27" t="n">
         <v>140</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AG27" t="n">
         <v>48</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AH27" t="n">
         <v>26</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>29</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AJ27" t="n">
         <v>450</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AK27" t="n">
         <v>160</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AL27" t="n">
         <v>110</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>110</v>
       </c>
-      <c r="AL27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>3.15</v>
+      <c r="AN27" t="n">
+        <v>180</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="28">
@@ -4029,7 +4195,7 @@
         <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4038,7 +4204,7 @@
         <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
         <v>2.1</v>
@@ -4047,69 +4213,75 @@
         <v>1.88</v>
       </c>
       <c r="R28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.71</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>2.36</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>1.62</v>
       </c>
-      <c r="U28" t="n">
+      <c r="W28" t="n">
         <v>1.49</v>
       </c>
-      <c r="V28" t="n">
+      <c r="X28" t="n">
         <v>15.5</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>12</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AA28" t="n">
         <v>36</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AC28" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AD28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AE28" t="n">
         <v>25</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AF28" t="n">
         <v>20</v>
       </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>16</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>36</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>48</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AK28" t="n">
         <v>30</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
         <v>75</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AN28" t="n">
         <v>25</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AO28" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4140,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H29" t="n">
         <v>2.72</v>
@@ -4179,66 +4351,72 @@
         <v>1.58</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T29" t="n">
         <v>1.57</v>
       </c>
       <c r="U29" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.58</v>
       </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z29" t="n">
         <v>20</v>
       </c>
-      <c r="W29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="n">
+      <c r="AA29" t="n">
         <v>40</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AB29" t="n">
         <v>15</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AC29" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AB29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE29" t="n">
         <v>25</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AF29" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
         <v>12</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AH29" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>30</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>38</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AK29" t="n">
         <v>24</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AL29" t="n">
         <v>30</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>55</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AN29" t="n">
         <v>17</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AO29" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4269,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G30" t="n">
         <v>2.86</v>
       </c>
       <c r="H30" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4305,69 +4483,75 @@
         <v>1.81</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.54</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
         <v>16.5</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>13.5</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>18</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AA30" t="n">
         <v>38</v>
       </c>
-      <c r="Z30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC30" t="n">
         <v>8</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AD30" t="n">
         <v>12</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AE30" t="n">
         <v>27</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AF30" t="n">
         <v>19</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AG30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AH30" t="n">
         <v>15</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>34</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>42</v>
       </c>
-      <c r="AI30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL30" t="n">
         <v>36</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>70</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AN30" t="n">
         <v>21</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AO30" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4398,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="n">
         <v>1.16</v>
@@ -4428,75 +4612,81 @@
         <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
         <v>1.4</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="S31" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V31" t="n">
         <v>6.8</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>1.04</v>
       </c>
-      <c r="V31" t="n">
+      <c r="X31" t="n">
         <v>46</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Y31" t="n">
         <v>13.5</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA31" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y31" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC31" t="n">
         <v>24</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AD31" t="n">
         <v>13</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AE31" t="n">
         <v>13</v>
       </c>
-      <c r="AD31" t="n">
-        <v>220</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>75</v>
-      </c>
       <c r="AF31" t="n">
+        <v>270</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH31" t="n">
         <v>46</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>42</v>
       </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>320</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
         <v>500</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AO31" t="n">
         <v>2.86</v>
       </c>
     </row>
@@ -4527,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G32" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H32" t="n">
         <v>5.2</v>
@@ -4539,94 +4729,100 @@
         <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R32" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>2.04</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.23</v>
       </c>
-      <c r="U32" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V32" t="n">
-        <v>14.5</v>
-      </c>
       <c r="W32" t="n">
-        <v>18.5</v>
+        <v>2.24</v>
       </c>
       <c r="X32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z32" t="n">
         <v>38</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AA32" t="n">
         <v>130</v>
       </c>
-      <c r="Z32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AB32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD32" t="n">
         <v>19.5</v>
       </c>
-      <c r="AC32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AG32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>70</v>
-      </c>
       <c r="AH32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AK32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
         <v>100</v>
       </c>
-      <c r="AL32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>75</v>
+      <c r="AN32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -4662,10 +4858,10 @@
         <v>4.7</v>
       </c>
       <c r="H33" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I33" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -4692,69 +4888,75 @@
         <v>1.71</v>
       </c>
       <c r="R33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.67</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>2.36</v>
       </c>
-      <c r="T33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.27</v>
       </c>
-      <c r="V33" t="n">
+      <c r="X33" t="n">
         <v>19</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y33" t="n">
         <v>11.5</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>12</v>
       </c>
-      <c r="Y33" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>21</v>
-      </c>
       <c r="AA33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC33" t="n">
         <v>9</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AD33" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AE33" t="n">
         <v>16.5</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AF33" t="n">
         <v>38</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AG33" t="n">
         <v>18</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AH33" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>28</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>100</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AK33" t="n">
         <v>55</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AL33" t="n">
         <v>55</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>75</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AN33" t="n">
         <v>50</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AO33" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4791,13 +4993,13 @@
         <v>1.24</v>
       </c>
       <c r="H34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J34" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K34" t="n">
         <v>9</v>
@@ -4812,78 +5014,84 @@
         <v>6.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T34" t="n">
         <v>2.04</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>1.75</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>1.05</v>
       </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
         <v>5</v>
       </c>
-      <c r="V34" t="n">
+      <c r="X34" t="n">
         <v>980</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
         <v>980</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>210</v>
       </c>
-      <c r="Y34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
         <v>13</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AC34" t="n">
         <v>75</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AD34" t="n">
         <v>980</v>
       </c>
-      <c r="AC34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AG34" t="n">
         <v>13</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AH34" t="n">
         <v>980</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>180</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>9.6</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AK34" t="n">
         <v>65</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK34" t="n">
+      <c r="AL34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM34" t="n">
         <v>200</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AN34" t="n">
         <v>3.6</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AO34" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -4914,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I35" t="n">
         <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.51</v>
@@ -4941,78 +5149,84 @@
         <v>2.76</v>
       </c>
       <c r="O35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
         <v>1.59</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.96</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>1.62</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>1.21</v>
       </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
         <v>2</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF35" t="n">
         <v>10.5</v>
       </c>
-      <c r="W35" t="n">
-        <v>21</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK35" t="n">
         <v>40</v>
       </c>
-      <c r="Y35" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>180</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AL35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN35" t="n">
         <v>22</v>
       </c>
-      <c r="AI35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>310</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM35" t="n">
+      <c r="AO35" t="n">
         <v>260</v>
       </c>
     </row>
@@ -5043,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I36" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
         <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -5079,69 +5293,75 @@
         <v>1.79</v>
       </c>
       <c r="R36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="n">
         <v>1.65</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>2.32</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X36" t="n">
         <v>21</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
         <v>18</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>32</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AA36" t="n">
         <v>75</v>
       </c>
-      <c r="Z36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
         <v>9</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AD36" t="n">
         <v>17</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AE36" t="n">
         <v>46</v>
       </c>
-      <c r="AD36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>13</v>
-      </c>
       <c r="AF36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH36" t="n">
         <v>21</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>55</v>
       </c>
-      <c r="AH36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>27</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="n">
         <v>100</v>
       </c>
-      <c r="AL36" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM36" t="n">
+      <c r="AN36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO36" t="n">
         <v>42</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>860</v>
+        <v>1.14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -940,19 +940,19 @@
         <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,25 +967,25 @@
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
         <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="U4" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
@@ -994,19 +994,19 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>8</v>
@@ -1042,7 +1042,7 @@
         <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1075,16 +1075,16 @@
         <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1144,10 +1144,10 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,10 +1156,10 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,16 +1168,16 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.5</v>
+        <v>840</v>
       </c>
       <c r="AM5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.3</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>29</v>
       </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O7" t="n">
         <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="n">
         <v>65</v>
       </c>
-      <c r="Y7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
         <v>8.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1495,7 +1495,7 @@
         <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1504,19 +1504,19 @@
         <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
         <v>12.5</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
         <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="M9" t="n">
         <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.05</v>
@@ -1660,10 +1660,10 @@
         <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1786,7 +1786,7 @@
         <v>1.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
         <v>1.76</v>
@@ -1903,7 +1903,7 @@
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>4.8</v>
@@ -1915,7 +1915,7 @@
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
         <v>1.52</v>
@@ -1924,7 +1924,7 @@
         <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
         <v>2.4</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
         <v>5.1</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
         <v>2.64</v>
@@ -2314,7 +2314,7 @@
         <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
         <v>1.77</v>
@@ -2329,7 +2329,7 @@
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
         <v>1.94</v>
@@ -2425,7 +2425,7 @@
         <v>1.84</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
@@ -2473,7 +2473,7 @@
         <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2509,7 +2509,7 @@
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2560,7 +2560,7 @@
         <v>1.42</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
@@ -2734,10 +2734,10 @@
         <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>1.59</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
         <v>2.8</v>
@@ -2857,7 +2857,7 @@
         <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
         <v>2.4</v>
@@ -2884,7 +2884,7 @@
         <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
         <v>100</v>
@@ -2977,7 +2977,7 @@
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -3004,7 +3004,7 @@
         <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>2.24</v>
@@ -3052,7 +3052,7 @@
         <v>280</v>
       </c>
       <c r="AJ19" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
@@ -3106,7 +3106,7 @@
         <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
         <v>2.02</v>
@@ -3139,13 +3139,13 @@
         <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U20" t="n">
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W20" t="n">
         <v>1.41</v>
@@ -3391,7 +3391,7 @@
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O22" t="n">
         <v>1.55</v>
@@ -3421,10 +3421,10 @@
         <v>2.36</v>
       </c>
       <c r="X22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
         <v>48</v>
@@ -3508,7 +3508,7 @@
         <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
         <v>3.45</v>
@@ -3517,7 +3517,7 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.52</v>
@@ -3538,7 +3538,7 @@
         <v>2.24</v>
       </c>
       <c r="R23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
         <v>4.3</v>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
         <v>1.71</v>
@@ -3673,7 +3673,7 @@
         <v>1.81</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
         <v>3.1</v>
@@ -3778,7 +3778,7 @@
         <v>2.16</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I25" t="n">
         <v>3.95</v>
@@ -3787,7 +3787,7 @@
         <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -4099,7 +4099,7 @@
         <v>42</v>
       </c>
       <c r="Y27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
         <v>10.5</v>
@@ -4144,7 +4144,7 @@
         <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AO27" t="n">
         <v>3.2</v>
@@ -4201,7 +4201,7 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -4210,7 +4210,7 @@
         <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R28" t="n">
         <v>1.43</v>
@@ -4282,7 +4282,7 @@
         <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G29" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H29" t="n">
         <v>2.72</v>
@@ -4336,7 +4336,7 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4345,10 +4345,10 @@
         <v>2.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R29" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
         <v>2.7</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G30" t="n">
         <v>2.86</v>
@@ -4492,7 +4492,7 @@
         <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V30" t="n">
         <v>1.58</v>
@@ -4630,7 +4630,7 @@
         <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="W31" t="n">
         <v>1.04</v>
@@ -4717,28 +4717,28 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G32" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H32" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.43</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
         <v>4.3</v>
@@ -4750,7 +4750,7 @@
         <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
         <v>1.43</v>
@@ -4759,16 +4759,16 @@
         <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X32" t="n">
         <v>16.5</v>
@@ -4783,7 +4783,7 @@
         <v>130</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>8.6</v>
@@ -4792,7 +4792,7 @@
         <v>19.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF32" t="n">
         <v>10.5</v>
@@ -4804,7 +4804,7 @@
         <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
         <v>17.5</v>
@@ -4822,7 +4822,7 @@
         <v>10.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4855,7 +4855,7 @@
         <v>4.6</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
         <v>1.84</v>
@@ -4897,7 +4897,7 @@
         <v>1.67</v>
       </c>
       <c r="U33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
         <v>2.16</v>
@@ -5029,16 +5029,16 @@
         <v>2.06</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="V34" t="n">
         <v>1.05</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
@@ -5062,7 +5062,7 @@
         <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF34" t="n">
         <v>9.199999999999999</v>
@@ -5077,7 +5077,7 @@
         <v>180</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK34" t="n">
         <v>65</v>
@@ -5092,7 +5092,7 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35">
@@ -5215,7 +5215,7 @@
         <v>22</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="n">
         <v>90</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="P2" t="n">
         <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="H3" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="I3" t="n">
         <v>680</v>
@@ -826,22 +826,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="I4" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,31 +961,31 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
@@ -994,55 +994,55 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1144,10 +1144,10 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,10 +1156,10 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,16 +1168,16 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>840</v>
+        <v>11.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
         <v>1.78</v>
       </c>
       <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>21</v>
       </c>
-      <c r="Y6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
       <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL6" t="n">
         <v>50</v>
       </c>
-      <c r="AB6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>38</v>
-      </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
         <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1369,85 +1369,85 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="Q7" t="n">
         <v>1.27</v>
       </c>
       <c r="R7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
         <v>36</v>
       </c>
       <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
         <v>17.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
@@ -1483,13 +1483,13 @@
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
         <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1510,7 +1510,7 @@
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1615,34 +1615,34 @@
         <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="M9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
@@ -1654,70 +1654,70 @@
         <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>1.47</v>
@@ -1759,13 +1759,13 @@
         <v>1.48</v>
       </c>
       <c r="J10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.2</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1786,7 +1786,7 @@
         <v>1.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
         <v>1.76</v>
@@ -1795,7 +1795,7 @@
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
@@ -1837,10 +1837,10 @@
         <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
@@ -1888,10 +1888,10 @@
         <v>4.2</v>
       </c>
       <c r="H11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I11" t="n">
         <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.02</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1915,22 +1915,22 @@
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
         <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>1.31</v>
@@ -1939,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
         <v>13</v>
@@ -1981,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
         <v>36</v>
@@ -2059,7 +2059,7 @@
         <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2155,7 +2155,7 @@
         <v>2.62</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
         <v>2.64</v>
@@ -2203,7 +2203,7 @@
         <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2329,7 +2329,7 @@
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>1.94</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2455,7 +2455,7 @@
         <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
         <v>1.51</v>
@@ -2467,16 +2467,16 @@
         <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -2488,7 +2488,7 @@
         <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.6</v>
@@ -2500,7 +2500,7 @@
         <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
@@ -2509,7 +2509,7 @@
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2524,7 +2524,7 @@
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>36</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G17" t="n">
         <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I17" t="n">
         <v>2.68</v>
@@ -2743,7 +2743,7 @@
         <v>1.59</v>
       </c>
       <c r="W17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2833,7 +2833,7 @@
         <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
         <v>2.8</v>
@@ -2842,7 +2842,7 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.54</v>
@@ -2884,7 +2884,7 @@
         <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="n">
         <v>100</v>
@@ -2968,7 +2968,7 @@
         <v>1.76</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
         <v>5.5</v>
@@ -3004,7 +3004,7 @@
         <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
         <v>2.24</v>
@@ -3052,7 +3052,7 @@
         <v>280</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
@@ -3100,7 +3100,7 @@
         <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H20" t="n">
         <v>2.32</v>
@@ -3130,7 +3130,7 @@
         <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
         <v>1.4</v>
@@ -3142,7 +3142,7 @@
         <v>1.78</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
         <v>1.74</v>
@@ -3409,7 +3409,7 @@
         <v>5.7</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U22" t="n">
         <v>1.63</v>
@@ -3418,10 +3418,10 @@
         <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y22" t="n">
         <v>15.5</v>
@@ -3433,7 +3433,7 @@
         <v>230</v>
       </c>
       <c r="AB22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC22" t="n">
         <v>8.4</v>
@@ -3469,7 +3469,7 @@
         <v>280</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO22" t="n">
         <v>260</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.42</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
@@ -3517,7 +3517,7 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.52</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3541,10 +3541,10 @@
         <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G24" t="n">
         <v>4.9</v>
       </c>
-      <c r="G24" t="n">
-        <v>5</v>
-      </c>
       <c r="H24" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3718,7 +3718,7 @@
         <v>40</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -3778,7 +3778,7 @@
         <v>2.16</v>
       </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
         <v>3.95</v>
@@ -3787,7 +3787,7 @@
         <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3805,13 +3805,13 @@
         <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
         <v>1.79</v>
@@ -3913,10 +3913,10 @@
         <v>2.34</v>
       </c>
       <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
@@ -4078,7 +4078,7 @@
         <v>1.37</v>
       </c>
       <c r="R27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S27" t="n">
         <v>1.93</v>
@@ -4183,10 +4183,10 @@
         <v>3.05</v>
       </c>
       <c r="H28" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.58</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4213,7 +4213,7 @@
         <v>1.89</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
         <v>3.2</v>
@@ -4225,10 +4225,10 @@
         <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
         <v>15.5</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
         <v>2.72</v>
@@ -4321,7 +4321,7 @@
         <v>2.72</v>
       </c>
       <c r="I29" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
@@ -4360,7 +4360,7 @@
         <v>2.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W29" t="n">
         <v>1.58</v>
@@ -4390,7 +4390,7 @@
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
         <v>2.44</v>
@@ -4612,13 +4612,13 @@
         <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q31" t="n">
         <v>1.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="W31" t="n">
         <v>1.04</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G32" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H32" t="n">
         <v>5.3</v>
@@ -4759,7 +4759,7 @@
         <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
         <v>2.1</v>
@@ -4768,16 +4768,16 @@
         <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X32" t="n">
         <v>16.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
         <v>130</v>
@@ -4792,7 +4792,7 @@
         <v>19.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="n">
         <v>10.5</v>
@@ -4804,7 +4804,7 @@
         <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
         <v>17.5</v>
@@ -4855,7 +4855,7 @@
         <v>4.6</v>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
         <v>1.84</v>
@@ -4882,16 +4882,16 @@
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
         <v>1.55</v>
       </c>
       <c r="S33" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T33" t="n">
         <v>1.67</v>
@@ -4918,10 +4918,10 @@
         <v>19.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>10.5</v>
@@ -5218,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="AL35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="n">
         <v>220</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
         <v>4.2</v>
@@ -5272,7 +5272,7 @@
         <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -5308,7 +5308,7 @@
         <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -5320,7 +5320,7 @@
         <v>32</v>
       </c>
       <c r="AA36" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -5335,7 +5335,7 @@
         <v>46</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
@@ -5347,7 +5347,7 @@
         <v>55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
         <v>26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-10.xlsx
@@ -673,19 +673,19 @@
         <v>1.01</v>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
         <v>100</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -832,13 +832,13 @@
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>3.05</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.4</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>170</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,70 +961,70 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>3.55</v>
       </c>
       <c r="R4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S4" t="n">
+        <v>21</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.38</v>
       </c>
-      <c r="S4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>1.11</v>
       </c>
       <c r="V4" t="n">
-        <v>2.66</v>
+        <v>50</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>1.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>870</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,16 +1033,16 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>17.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="I5" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1144,10 +1144,10 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,10 +1156,10 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.6</v>
+        <v>2.06</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,16 +1168,16 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>16</v>
+        <v>5.2</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>490</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="R7" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.4</v>
+        <v>240</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>680</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>1.41</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>1.27</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
         <v>26</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>280</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1777,25 +1777,25 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
         <v>1.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
@@ -1819,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1834,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
         <v>220</v>
@@ -1849,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
         <v>5.2</v>
@@ -1888,10 +1888,10 @@
         <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1903,10 +1903,10 @@
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -1918,25 +1918,25 @@
         <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W11" t="n">
         <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1981,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>36</v>
@@ -2020,22 +2020,22 @@
         <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
         <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2059,7 +2059,7 @@
         <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2068,19 +2068,19 @@
         <v>2.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
         <v>30</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>30</v>
@@ -2089,19 +2089,19 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>150</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>2.62</v>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2203,7 +2203,7 @@
         <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2311,28 +2311,28 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
         <v>1.96</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.22</v>
@@ -2425,13 +2425,13 @@
         <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2452,7 +2452,7 @@
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
         <v>1.67</v>
@@ -2461,19 +2461,19 @@
         <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2482,10 +2482,10 @@
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
@@ -2494,13 +2494,13 @@
         <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
@@ -2509,10 +2509,10 @@
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
         <v>18</v>
@@ -2524,10 +2524,10 @@
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>1.42</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>870</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2608,7 +2608,7 @@
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
         <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
         <v>2.68</v>
@@ -2734,7 +2734,7 @@
         <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>2.12</v>
@@ -2833,7 +2833,7 @@
         <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
         <v>2.8</v>
@@ -2884,7 +2884,7 @@
         <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
         <v>100</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="n">
         <v>70</v>
@@ -2968,16 +2968,16 @@
         <v>1.76</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2995,7 +2995,7 @@
         <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
         <v>1.55</v>
@@ -3004,22 +3004,22 @@
         <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
         <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3103,10 +3103,10 @@
         <v>3.45</v>
       </c>
       <c r="H20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.32</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.34</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3139,13 +3139,13 @@
         <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
         <v>1.41</v>
@@ -3154,7 +3154,7 @@
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
         <v>14.5</v>
@@ -3178,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
         <v>17</v>
@@ -3187,7 +3187,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>38</v>
@@ -3238,10 +3238,10 @@
         <v>1.95</v>
       </c>
       <c r="H21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I21" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.9</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3262,10 +3262,10 @@
         <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
         <v>1.3</v>
@@ -3274,13 +3274,13 @@
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
         <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W21" t="n">
         <v>2.04</v>
@@ -3292,28 +3292,28 @@
         <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
         <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
         <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3334,10 +3334,10 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G22" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H22" t="n">
         <v>6.6</v>
@@ -3391,10 +3391,10 @@
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3406,25 +3406,25 @@
         <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T22" t="n">
         <v>2.48</v>
       </c>
       <c r="U22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V22" t="n">
         <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>48</v>
@@ -3433,10 +3433,10 @@
         <v>230</v>
       </c>
       <c r="AB22" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
         <v>27</v>
@@ -3445,13 +3445,13 @@
         <v>140</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
         <v>160</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
         <v>3.45</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3535,16 +3535,16 @@
         <v>1.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -3577,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3589,7 +3589,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
@@ -3607,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="I24" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3676,7 +3676,7 @@
         <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.78</v>
@@ -3685,13 +3685,13 @@
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W24" t="n">
         <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>10</v>
@@ -3739,7 +3739,7 @@
         <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="n">
         <v>9.6</v>
@@ -3781,13 +3781,13 @@
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3805,13 +3805,13 @@
         <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R25" t="n">
         <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
         <v>1.79</v>
@@ -3826,7 +3826,7 @@
         <v>1.86</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
         <v>15</v>
@@ -3853,7 +3853,7 @@
         <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>17.5</v>
@@ -3874,7 +3874,7 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
         <v>42</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -3925,7 +3925,7 @@
         <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3946,7 +3946,7 @@
         <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
@@ -3955,10 +3955,10 @@
         <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X26" t="n">
         <v>14.5</v>
@@ -4078,10 +4078,10 @@
         <v>1.37</v>
       </c>
       <c r="R27" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S27" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T27" t="n">
         <v>1.81</v>
@@ -4096,7 +4096,7 @@
         <v>1.07</v>
       </c>
       <c r="X27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="n">
         <v>15.5</v>
@@ -4111,7 +4111,7 @@
         <v>65</v>
       </c>
       <c r="AC27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD27" t="n">
         <v>12</v>
@@ -4132,7 +4132,7 @@
         <v>29</v>
       </c>
       <c r="AJ27" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AK27" t="n">
         <v>160</v>
@@ -4183,10 +4183,10 @@
         <v>3.05</v>
       </c>
       <c r="H28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4201,22 +4201,22 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
         <v>1.44</v>
       </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
         <v>1.71</v>
@@ -4225,10 +4225,10 @@
         <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X28" t="n">
         <v>15.5</v>
@@ -4273,13 +4273,13 @@
         <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
         <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
         <v>18.5</v>
@@ -4321,7 +4321,7 @@
         <v>2.72</v>
       </c>
       <c r="I29" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
@@ -4336,7 +4336,7 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4345,13 +4345,13 @@
         <v>2.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T29" t="n">
         <v>1.57</v>
@@ -4360,7 +4360,7 @@
         <v>2.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
         <v>1.58</v>
@@ -4381,7 +4381,7 @@
         <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.84</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.86</v>
       </c>
       <c r="H30" t="n">
         <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4471,7 +4471,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.26</v>
@@ -4492,10 +4492,10 @@
         <v>1.65</v>
       </c>
       <c r="U30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V30" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
         <v>1.54</v>
@@ -4510,7 +4510,7 @@
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="n">
         <v>13.5</v>
@@ -4549,10 +4549,10 @@
         <v>70</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="31">
@@ -4606,28 +4606,28 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R31" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T31" t="n">
         <v>2.18</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
         <v>6.8</v>
@@ -4648,10 +4648,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
         <v>13</v>
@@ -4660,13 +4660,13 @@
         <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="n">
         <v>42</v>
@@ -4684,10 +4684,10 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AO31" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.77</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.79</v>
       </c>
       <c r="H32" t="n">
         <v>5.3</v>
@@ -4744,22 +4744,22 @@
         <v>4.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
         <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
         <v>2.1</v>
@@ -4768,13 +4768,13 @@
         <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
         <v>40</v>
@@ -4786,13 +4786,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF32" t="n">
         <v>10.5</v>
@@ -4804,13 +4804,13 @@
         <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
         <v>17.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="n">
         <v>34</v>
@@ -4819,10 +4819,10 @@
         <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4855,13 +4855,13 @@
         <v>4.6</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -4870,31 +4870,31 @@
         <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
         <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
         <v>1.55</v>
       </c>
       <c r="S33" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U33" t="n">
         <v>2.38</v>
@@ -4903,7 +4903,7 @@
         <v>2.16</v>
       </c>
       <c r="W33" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X33" t="n">
         <v>19</v>
@@ -4915,10 +4915,10 @@
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
         <v>9.199999999999999</v>
@@ -4930,7 +4930,7 @@
         <v>16.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG33" t="n">
         <v>18</v>
@@ -4954,10 +4954,10 @@
         <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4990,10 +4990,10 @@
         <v>1.2</v>
       </c>
       <c r="G34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I34" t="n">
         <v>21</v>
@@ -5056,13 +5056,13 @@
         <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
         <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF34" t="n">
         <v>9.199999999999999</v>
@@ -5080,7 +5080,7 @@
         <v>9.4</v>
       </c>
       <c r="AK34" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="AL34" t="n">
         <v>55</v>
@@ -5089,10 +5089,10 @@
         <v>200</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H35" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>1.51</v>
@@ -5149,7 +5149,7 @@
         <v>2.76</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
         <v>1.59</v>
@@ -5167,31 +5167,31 @@
         <v>1.96</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V35" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Z35" t="n">
         <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
         <v>24</v>
@@ -5206,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
         <v>180</v>
@@ -5221,10 +5221,10 @@
         <v>85</v>
       </c>
       <c r="AM35" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
         <v>260</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G36" t="n">
         <v>2.16</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
         <v>4.2</v>
@@ -5284,7 +5284,7 @@
         <v>3.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
         <v>2.04</v>
@@ -5305,7 +5305,7 @@
         <v>2.32</v>
       </c>
       <c r="V36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
         <v>1.86</v>
@@ -5359,7 +5359,7 @@
         <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO36" t="n">
         <v>42</v>
